--- a/medicine/Psychotrope/Gallaher_Group/Gallaher_Group.xlsx
+++ b/medicine/Psychotrope/Gallaher_Group/Gallaher_Group.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gallaher Group est une multinationale anglaise active dans la fabrication et la vente de produits à base de tabac. Elle fait partie depuis 2007 du groupe Japan Tobacco.
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallaher est créée en 1857 par Tom Gallaher à Derry. En 1896, il inaugure la plus grande usine de cigarettes du monde (pour l'époque), à Belfast.
 L'entreprise grossit ensuite en rachetant nombre de rivaux : J. A. Pattreiouex (1937), J. R. Freeman (1947), Cope Bros &amp; Co (1952) et Benson &amp; Hedges (1955).
 En août 2000, Gallaher prend le contrôle de Liggett Ducat, marque de cigarette numéro un des ventes en Russie, puis en janvier 2002 de Austria Tabak, lors de la privatisation de l'entreprise publique autrichienne.
-En 2006, Gallaher est racheté par Japan Tobacco[2].
+En 2006, Gallaher est racheté par Japan Tobacco.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Principales marques mondiales
-Benson &amp; Hedges
+          <t>Principales marques mondiales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Benson &amp; Hedges
 Silk Cut
 Sterling
 Mayfair
@@ -560,9 +579,43 @@
 Dos Hermanos
 Gold Seal
 Amber Leaf
-Sobranie
-Autres produits du tabac
-Snus</t>
+Sobranie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gallaher_Group</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gallaher_Group</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres produits du tabac</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Snus</t>
         </is>
       </c>
     </row>
